--- a/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3150,7 +3151,6 @@
           <t>招商行业领先混合H</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>86.74</t>
@@ -3166,6 +3166,2604 @@
       </c>
       <c r="H27" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2285</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4607</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>40.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5769,4 +5770,5600 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H147"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>201.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>134.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5453</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3313</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1262</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9157</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8351</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7468</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6819</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6471</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5224</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5078</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>72.46</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>56.83</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>56.83</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11366,4 +11367,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11375,7 +11376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11386,17 +11387,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11406,14 +11427,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.73</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11422,14 +11465,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.32</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -11438,14 +11503,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.71</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -11454,13 +11541,5913 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.6506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7817</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7768</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7130</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5444</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4071</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>146</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>43</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17346,7 +17347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17357,17 +17358,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17377,14 +17398,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>156</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.08</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>185.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -17393,14 +17436,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>146</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.73</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -17409,14 +17474,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.32</v>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1304</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17425,14 +17512,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.71</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -17441,13 +17550,3239 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1435</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9556</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9251</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5669</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3803</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3281</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3155</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>156</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>146</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>43</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20665,7 +20666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20676,17 +20677,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20696,14 +20717,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.82</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -20712,14 +20755,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>156</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.08</v>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -20728,14 +20793,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>146</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50.73</v>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -20744,14 +20831,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.32</v>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -20760,14 +20869,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.71</v>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -20776,13 +20907,2949 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7265</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>146</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>43</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>22.6</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>35.82</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D4" t="n">
-        <v>53.08</v>
+        <v>35.82</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D5" t="n">
-        <v>50.73</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="D6" t="n">
-        <v>11.32</v>
+        <v>50.73</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>7.71</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>43</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4899</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3649,7 +4178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6967,7 +7496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12937,7 +13466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18533,7 +19062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21131,7 +21660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22168,7 +22697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600884-杉杉股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>4.19</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>22.6</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>35.82</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>53.08</v>
+        <v>35.82</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D6" t="n">
-        <v>50.73</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="D7" t="n">
-        <v>11.32</v>
+        <v>50.73</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>7.71</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1720 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>43</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4767</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7700</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4507</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2324,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +3081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4178,7 +6131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7496,7 +9449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13466,7 +15419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19062,7 +21015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21660,7 +23613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22695,1694 +24648,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>400015</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方新能源汽车主题混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9076</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005939</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7363</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009147</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4767</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005940</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9283</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001245</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信生态环境行业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7700</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006128</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河和美生活主题混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7216</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001166</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信环保产业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6316</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5025</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006348</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华盛利混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4670</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002148</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国寿安保稳惠灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4507</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4395</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519110</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4150</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008555</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3519</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000592</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信改革红利股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3391</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3034</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001702</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方创新科技混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2883</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2757</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>530011</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信内生动力混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2346</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001521</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国寿安保成长优选股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2163</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>165313</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信优势动力混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2134</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1923</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1806</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1534</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001858</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>建信鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1017</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005674</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>诺德消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1000</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>519120</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.37</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0827</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010237</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0800</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>519113</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>浦银安盛精致生活混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002378</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>建信弘利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0542</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>165317</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>建信丰裕多策略灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001808</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>银华互联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>530016</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>建信恒稳价值混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>78.96</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010238</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>000270</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>建信灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>